--- a/uploads/washing_machine.xlsx
+++ b/uploads/washing_machine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RIFAYEE\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aadit\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5518771C-6344-4D40-88DF-4482EF886AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1E9E7E-DB19-48F6-96D8-7EBA5FFD83D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="0" windowWidth="10575" windowHeight="10815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="91">
   <si>
     <t>Title</t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t>Godrej</t>
+  </si>
+  <si>
+    <t>Expiry</t>
   </si>
 </sst>
 </file>
@@ -361,90 +364,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -749,19 +673,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="2" max="2" width="92.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="92.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -795,15 +719,18 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="L1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
@@ -815,13 +742,13 @@
       <c r="F2" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J2">
@@ -830,15 +757,18 @@
       <c r="K2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" t="s">
@@ -850,13 +780,13 @@
       <c r="F3" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J3">
@@ -865,15 +795,18 @@
       <c r="K3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" t="s">
@@ -885,13 +818,13 @@
       <c r="F4" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J4">
@@ -900,15 +833,18 @@
       <c r="K4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D5" t="s">
@@ -920,13 +856,13 @@
       <c r="F5" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J5">
@@ -935,15 +871,18 @@
       <c r="K5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D6" t="s">
@@ -955,13 +894,13 @@
       <c r="F6" t="s">
         <v>87</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J6">
@@ -970,15 +909,18 @@
       <c r="K6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D7" t="s">
@@ -990,13 +932,13 @@
       <c r="F7" t="s">
         <v>87</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="H7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J7">
@@ -1005,15 +947,18 @@
       <c r="K7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D8" t="s">
@@ -1022,16 +967,16 @@
       <c r="E8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J8">
@@ -1040,15 +985,18 @@
       <c r="K8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D9" t="s">
@@ -1057,16 +1005,16 @@
       <c r="E9" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="48" t="s">
+      <c r="H9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J9">
@@ -1075,15 +1023,18 @@
       <c r="K9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D10" t="s">
@@ -1092,16 +1043,16 @@
       <c r="E10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="52" t="s">
+      <c r="G10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="53" t="s">
+      <c r="H10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J10">
@@ -1110,15 +1061,18 @@
       <c r="K10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D11" t="s">
@@ -1127,16 +1081,16 @@
       <c r="E11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="57" t="s">
+      <c r="H11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J11">
@@ -1145,15 +1099,18 @@
       <c r="K11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="58" t="s">
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D12" t="s">
@@ -1162,16 +1119,16 @@
       <c r="E12" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="61" t="s">
+      <c r="H12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J12">
@@ -1180,15 +1137,18 @@
       <c r="K12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="62" t="s">
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D13" t="s">
@@ -1197,16 +1157,16 @@
       <c r="E13" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="64" t="s">
+      <c r="G13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="65" t="s">
+      <c r="H13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J13">
@@ -1215,15 +1175,18 @@
       <c r="K13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="66" t="s">
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D14" t="s">
@@ -1232,16 +1195,16 @@
       <c r="E14" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="68" t="s">
+      <c r="G14" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H14" s="69" t="s">
+      <c r="H14" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J14">
@@ -1250,15 +1213,18 @@
       <c r="K14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="76" t="s">
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="77" t="s">
+      <c r="C15" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D15" t="s">
@@ -1267,16 +1233,16 @@
       <c r="E15" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="70" t="s">
+      <c r="G15" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H15" s="71" t="s">
+      <c r="H15" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="I15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="J15">
@@ -1285,15 +1251,18 @@
       <c r="K15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="78" t="s">
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D16" t="s">
@@ -1302,16 +1271,16 @@
       <c r="E16" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="72" t="s">
+      <c r="G16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="73" t="s">
+      <c r="H16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="J16">
@@ -1320,15 +1289,18 @@
       <c r="K16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="81" t="s">
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D17" t="s">
@@ -1337,16 +1309,16 @@
       <c r="E17" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G17" s="75" t="s">
+      <c r="G17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="74" t="s">
+      <c r="H17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I17" s="28" t="s">
+      <c r="I17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="J17">
@@ -1355,137 +1327,140 @@
       <c r="K17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="2"/>
     </row>
   </sheetData>
